--- a/sapana excel basics (1) 1 1.xlsx
+++ b/sapana excel basics (1) 1 1.xlsx
@@ -573,9 +573,21 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -588,16 +600,58 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -606,58 +660,7 @@
     <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -665,9 +668,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -709,7 +709,7 @@
         <xdr:cNvPr id="2" name="Picture 1" descr="workbook.PNG">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -753,7 +753,7 @@
         <xdr:cNvPr id="3" name="Picture 2" descr="WORKSHEET.PNG">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000003000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -797,7 +797,7 @@
         <xdr:cNvPr id="4" name="Picture 3" descr="CELL NAME.PNG">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000004000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -841,7 +841,7 @@
         <xdr:cNvPr id="5" name="Picture 4" descr="Capture.PNG">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000005000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -885,7 +885,7 @@
         <xdr:cNvPr id="6" name="Picture 5" descr="RIBBON.PNG">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000006000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1533,132 +1533,132 @@
   <sheetData>
     <row r="1" spans="1:16">
       <c r="A1" s="1"/>
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
     </row>
     <row r="2" spans="1:16">
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
     </row>
     <row r="4" spans="1:16">
-      <c r="B4" s="23"/>
-      <c r="C4" s="23"/>
-      <c r="D4" s="23"/>
-      <c r="E4" s="23"/>
-      <c r="F4" s="23"/>
-      <c r="G4" s="23"/>
+      <c r="B4" s="27"/>
+      <c r="C4" s="27"/>
+      <c r="D4" s="27"/>
+      <c r="E4" s="27"/>
+      <c r="F4" s="27"/>
+      <c r="G4" s="27"/>
     </row>
     <row r="5" spans="1:16">
-      <c r="B5" s="23"/>
-      <c r="C5" s="23"/>
-      <c r="D5" s="23"/>
-      <c r="E5" s="23"/>
-      <c r="F5" s="23"/>
-      <c r="G5" s="23"/>
-      <c r="I5" s="24" t="s">
+      <c r="B5" s="27"/>
+      <c r="C5" s="27"/>
+      <c r="D5" s="27"/>
+      <c r="E5" s="27"/>
+      <c r="F5" s="27"/>
+      <c r="G5" s="27"/>
+      <c r="I5" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="J5" s="24"/>
-      <c r="K5" s="24"/>
-      <c r="L5" s="24"/>
-      <c r="M5" s="24"/>
-      <c r="N5" s="24"/>
-      <c r="O5" s="24"/>
-      <c r="P5" s="24"/>
+      <c r="J5" s="28"/>
+      <c r="K5" s="28"/>
+      <c r="L5" s="28"/>
+      <c r="M5" s="28"/>
+      <c r="N5" s="28"/>
+      <c r="O5" s="28"/>
+      <c r="P5" s="28"/>
     </row>
     <row r="6" spans="1:16">
-      <c r="B6" s="23"/>
-      <c r="C6" s="23"/>
-      <c r="D6" s="23"/>
-      <c r="E6" s="23"/>
-      <c r="F6" s="23"/>
-      <c r="G6" s="23"/>
-      <c r="I6" s="24"/>
-      <c r="J6" s="24"/>
-      <c r="K6" s="24"/>
-      <c r="L6" s="24"/>
-      <c r="M6" s="24"/>
-      <c r="N6" s="24"/>
-      <c r="O6" s="24"/>
-      <c r="P6" s="24"/>
+      <c r="B6" s="27"/>
+      <c r="C6" s="27"/>
+      <c r="D6" s="27"/>
+      <c r="E6" s="27"/>
+      <c r="F6" s="27"/>
+      <c r="G6" s="27"/>
+      <c r="I6" s="28"/>
+      <c r="J6" s="28"/>
+      <c r="K6" s="28"/>
+      <c r="L6" s="28"/>
+      <c r="M6" s="28"/>
+      <c r="N6" s="28"/>
+      <c r="O6" s="28"/>
+      <c r="P6" s="28"/>
     </row>
     <row r="7" spans="1:16">
-      <c r="B7" s="23"/>
-      <c r="C7" s="23"/>
-      <c r="D7" s="23"/>
-      <c r="E7" s="23"/>
-      <c r="F7" s="23"/>
-      <c r="G7" s="23"/>
+      <c r="B7" s="27"/>
+      <c r="C7" s="27"/>
+      <c r="D7" s="27"/>
+      <c r="E7" s="27"/>
+      <c r="F7" s="27"/>
+      <c r="G7" s="27"/>
     </row>
     <row r="8" spans="1:16">
-      <c r="B8" s="23"/>
-      <c r="C8" s="23"/>
-      <c r="D8" s="23"/>
-      <c r="E8" s="23"/>
-      <c r="F8" s="23"/>
-      <c r="G8" s="23"/>
+      <c r="B8" s="27"/>
+      <c r="C8" s="27"/>
+      <c r="D8" s="27"/>
+      <c r="E8" s="27"/>
+      <c r="F8" s="27"/>
+      <c r="G8" s="27"/>
     </row>
     <row r="9" spans="1:16">
-      <c r="B9" s="23"/>
-      <c r="C9" s="23"/>
-      <c r="D9" s="23"/>
-      <c r="E9" s="23"/>
-      <c r="F9" s="23"/>
-      <c r="G9" s="23"/>
+      <c r="B9" s="27"/>
+      <c r="C9" s="27"/>
+      <c r="D9" s="27"/>
+      <c r="E9" s="27"/>
+      <c r="F9" s="27"/>
+      <c r="G9" s="27"/>
     </row>
     <row r="10" spans="1:16">
-      <c r="B10" s="23"/>
-      <c r="C10" s="23"/>
-      <c r="D10" s="23"/>
-      <c r="E10" s="23"/>
-      <c r="F10" s="23"/>
-      <c r="G10" s="23"/>
+      <c r="B10" s="27"/>
+      <c r="C10" s="27"/>
+      <c r="D10" s="27"/>
+      <c r="E10" s="27"/>
+      <c r="F10" s="27"/>
+      <c r="G10" s="27"/>
     </row>
     <row r="11" spans="1:16">
-      <c r="B11" s="23"/>
-      <c r="C11" s="23"/>
-      <c r="D11" s="23"/>
-      <c r="E11" s="23"/>
-      <c r="F11" s="23"/>
-      <c r="G11" s="23"/>
+      <c r="B11" s="27"/>
+      <c r="C11" s="27"/>
+      <c r="D11" s="27"/>
+      <c r="E11" s="27"/>
+      <c r="F11" s="27"/>
+      <c r="G11" s="27"/>
     </row>
     <row r="12" spans="1:16">
-      <c r="B12" s="23"/>
-      <c r="C12" s="23"/>
-      <c r="D12" s="23"/>
-      <c r="E12" s="23"/>
-      <c r="F12" s="23"/>
-      <c r="G12" s="23"/>
+      <c r="B12" s="27"/>
+      <c r="C12" s="27"/>
+      <c r="D12" s="27"/>
+      <c r="E12" s="27"/>
+      <c r="F12" s="27"/>
+      <c r="G12" s="27"/>
     </row>
     <row r="13" spans="1:16">
-      <c r="B13" s="23"/>
-      <c r="C13" s="23"/>
-      <c r="D13" s="23"/>
-      <c r="E13" s="23"/>
-      <c r="F13" s="23"/>
-      <c r="G13" s="23"/>
+      <c r="B13" s="27"/>
+      <c r="C13" s="27"/>
+      <c r="D13" s="27"/>
+      <c r="E13" s="27"/>
+      <c r="F13" s="27"/>
+      <c r="G13" s="27"/>
     </row>
     <row r="14" spans="1:16">
-      <c r="B14" s="23"/>
-      <c r="C14" s="23"/>
-      <c r="D14" s="23"/>
-      <c r="E14" s="23"/>
-      <c r="F14" s="23"/>
-      <c r="G14" s="23"/>
+      <c r="B14" s="27"/>
+      <c r="C14" s="27"/>
+      <c r="D14" s="27"/>
+      <c r="E14" s="27"/>
+      <c r="F14" s="27"/>
+      <c r="G14" s="27"/>
     </row>
     <row r="15" spans="1:16">
-      <c r="B15" s="23"/>
-      <c r="C15" s="23"/>
-      <c r="D15" s="23"/>
-      <c r="E15" s="23"/>
-      <c r="F15" s="23"/>
-      <c r="G15" s="23"/>
+      <c r="B15" s="27"/>
+      <c r="C15" s="27"/>
+      <c r="D15" s="27"/>
+      <c r="E15" s="27"/>
+      <c r="F15" s="27"/>
+      <c r="G15" s="27"/>
     </row>
     <row r="16" spans="1:16">
       <c r="B16" s="2"/>
@@ -1677,110 +1677,110 @@
       <c r="G17" s="2"/>
     </row>
     <row r="18" spans="2:17">
-      <c r="B18" s="22" t="s">
+      <c r="B18" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="C18" s="22"/>
-      <c r="D18" s="22"/>
-      <c r="E18" s="22"/>
+      <c r="C18" s="23"/>
+      <c r="D18" s="23"/>
+      <c r="E18" s="23"/>
     </row>
     <row r="19" spans="2:17">
-      <c r="B19" s="22"/>
-      <c r="C19" s="22"/>
-      <c r="D19" s="22"/>
-      <c r="E19" s="22"/>
+      <c r="B19" s="23"/>
+      <c r="C19" s="23"/>
+      <c r="D19" s="23"/>
+      <c r="E19" s="23"/>
     </row>
     <row r="20" spans="2:17">
-      <c r="B20" s="22"/>
-      <c r="C20" s="22"/>
-      <c r="D20" s="22"/>
-      <c r="E20" s="22"/>
+      <c r="B20" s="23"/>
+      <c r="C20" s="23"/>
+      <c r="D20" s="23"/>
+      <c r="E20" s="23"/>
     </row>
     <row r="22" spans="2:17">
-      <c r="B22" s="25"/>
-      <c r="C22" s="25"/>
-      <c r="D22" s="25"/>
-      <c r="E22" s="25"/>
-      <c r="F22" s="25"/>
-      <c r="G22" s="25"/>
-      <c r="J22" s="26" t="s">
+      <c r="B22" s="29"/>
+      <c r="C22" s="29"/>
+      <c r="D22" s="29"/>
+      <c r="E22" s="29"/>
+      <c r="F22" s="29"/>
+      <c r="G22" s="29"/>
+      <c r="J22" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="K22" s="26"/>
-      <c r="L22" s="26"/>
-      <c r="M22" s="26"/>
-      <c r="N22" s="26"/>
-      <c r="O22" s="26"/>
-      <c r="P22" s="26"/>
-      <c r="Q22" s="26"/>
+      <c r="K22" s="30"/>
+      <c r="L22" s="30"/>
+      <c r="M22" s="30"/>
+      <c r="N22" s="30"/>
+      <c r="O22" s="30"/>
+      <c r="P22" s="30"/>
+      <c r="Q22" s="30"/>
     </row>
     <row r="23" spans="2:17">
-      <c r="B23" s="25"/>
-      <c r="C23" s="25"/>
-      <c r="D23" s="25"/>
-      <c r="E23" s="25"/>
-      <c r="F23" s="25"/>
-      <c r="G23" s="25"/>
-      <c r="J23" s="26"/>
-      <c r="K23" s="26"/>
-      <c r="L23" s="26"/>
-      <c r="M23" s="26"/>
-      <c r="N23" s="26"/>
-      <c r="O23" s="26"/>
-      <c r="P23" s="26"/>
-      <c r="Q23" s="26"/>
+      <c r="B23" s="29"/>
+      <c r="C23" s="29"/>
+      <c r="D23" s="29"/>
+      <c r="E23" s="29"/>
+      <c r="F23" s="29"/>
+      <c r="G23" s="29"/>
+      <c r="J23" s="30"/>
+      <c r="K23" s="30"/>
+      <c r="L23" s="30"/>
+      <c r="M23" s="30"/>
+      <c r="N23" s="30"/>
+      <c r="O23" s="30"/>
+      <c r="P23" s="30"/>
+      <c r="Q23" s="30"/>
     </row>
     <row r="24" spans="2:17">
-      <c r="B24" s="25"/>
-      <c r="C24" s="25"/>
-      <c r="D24" s="25"/>
-      <c r="E24" s="25"/>
-      <c r="F24" s="25"/>
-      <c r="G24" s="25"/>
+      <c r="B24" s="29"/>
+      <c r="C24" s="29"/>
+      <c r="D24" s="29"/>
+      <c r="E24" s="29"/>
+      <c r="F24" s="29"/>
+      <c r="G24" s="29"/>
     </row>
     <row r="25" spans="2:17">
-      <c r="B25" s="25"/>
-      <c r="C25" s="25"/>
-      <c r="D25" s="25"/>
-      <c r="E25" s="25"/>
-      <c r="F25" s="25"/>
-      <c r="G25" s="25"/>
+      <c r="B25" s="29"/>
+      <c r="C25" s="29"/>
+      <c r="D25" s="29"/>
+      <c r="E25" s="29"/>
+      <c r="F25" s="29"/>
+      <c r="G25" s="29"/>
     </row>
     <row r="26" spans="2:17">
-      <c r="B26" s="25"/>
-      <c r="C26" s="25"/>
-      <c r="D26" s="25"/>
-      <c r="E26" s="25"/>
-      <c r="F26" s="25"/>
-      <c r="G26" s="25"/>
+      <c r="B26" s="29"/>
+      <c r="C26" s="29"/>
+      <c r="D26" s="29"/>
+      <c r="E26" s="29"/>
+      <c r="F26" s="29"/>
+      <c r="G26" s="29"/>
     </row>
     <row r="27" spans="2:17">
-      <c r="B27" s="25"/>
-      <c r="C27" s="25"/>
-      <c r="D27" s="25"/>
-      <c r="E27" s="25"/>
-      <c r="F27" s="25"/>
-      <c r="G27" s="25"/>
+      <c r="B27" s="29"/>
+      <c r="C27" s="29"/>
+      <c r="D27" s="29"/>
+      <c r="E27" s="29"/>
+      <c r="F27" s="29"/>
+      <c r="G27" s="29"/>
     </row>
     <row r="31" spans="2:17">
-      <c r="B31" s="22" t="s">
+      <c r="B31" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="C31" s="22"/>
-      <c r="D31" s="22"/>
-      <c r="E31" s="22"/>
+      <c r="C31" s="23"/>
+      <c r="D31" s="23"/>
+      <c r="E31" s="23"/>
     </row>
     <row r="32" spans="2:17">
-      <c r="B32" s="22"/>
-      <c r="C32" s="22"/>
-      <c r="D32" s="22"/>
-      <c r="E32" s="22"/>
+      <c r="B32" s="23"/>
+      <c r="C32" s="23"/>
+      <c r="D32" s="23"/>
+      <c r="E32" s="23"/>
     </row>
     <row r="33" spans="2:12">
-      <c r="B33" s="22"/>
-      <c r="C33" s="22"/>
-      <c r="D33" s="22"/>
-      <c r="E33" s="22"/>
+      <c r="B33" s="23"/>
+      <c r="C33" s="23"/>
+      <c r="D33" s="23"/>
+      <c r="E33" s="23"/>
     </row>
     <row r="36" spans="2:12">
       <c r="B36" s="3"/>
@@ -1807,48 +1807,48 @@
       <c r="E39" s="3"/>
     </row>
     <row r="42" spans="2:12">
-      <c r="B42" s="28" t="s">
+      <c r="B42" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="C42" s="28"/>
-      <c r="D42" s="28"/>
-      <c r="E42" s="28"/>
-      <c r="F42" s="28"/>
-      <c r="G42" s="28"/>
-      <c r="H42" s="28"/>
-      <c r="I42" s="28"/>
-      <c r="J42" s="28"/>
-      <c r="K42" s="28"/>
-      <c r="L42" s="28"/>
+      <c r="C42" s="24"/>
+      <c r="D42" s="24"/>
+      <c r="E42" s="24"/>
+      <c r="F42" s="24"/>
+      <c r="G42" s="24"/>
+      <c r="H42" s="24"/>
+      <c r="I42" s="24"/>
+      <c r="J42" s="24"/>
+      <c r="K42" s="24"/>
+      <c r="L42" s="24"/>
     </row>
     <row r="43" spans="2:12">
-      <c r="B43" s="28"/>
-      <c r="C43" s="28"/>
-      <c r="D43" s="28"/>
-      <c r="E43" s="28"/>
-      <c r="F43" s="28"/>
-      <c r="G43" s="28"/>
-      <c r="H43" s="28"/>
-      <c r="I43" s="28"/>
-      <c r="J43" s="28"/>
-      <c r="K43" s="28"/>
-      <c r="L43" s="28"/>
+      <c r="B43" s="24"/>
+      <c r="C43" s="24"/>
+      <c r="D43" s="24"/>
+      <c r="E43" s="24"/>
+      <c r="F43" s="24"/>
+      <c r="G43" s="24"/>
+      <c r="H43" s="24"/>
+      <c r="I43" s="24"/>
+      <c r="J43" s="24"/>
+      <c r="K43" s="24"/>
+      <c r="L43" s="24"/>
     </row>
     <row r="44" spans="2:12">
-      <c r="B44" s="28"/>
-      <c r="C44" s="28"/>
-      <c r="D44" s="28"/>
-      <c r="E44" s="28"/>
-      <c r="F44" s="28"/>
-      <c r="G44" s="28"/>
-      <c r="H44" s="28"/>
-      <c r="I44" s="28"/>
-      <c r="J44" s="28"/>
-      <c r="K44" s="28"/>
-      <c r="L44" s="28"/>
+      <c r="B44" s="24"/>
+      <c r="C44" s="24"/>
+      <c r="D44" s="24"/>
+      <c r="E44" s="24"/>
+      <c r="F44" s="24"/>
+      <c r="G44" s="24"/>
+      <c r="H44" s="24"/>
+      <c r="I44" s="24"/>
+      <c r="J44" s="24"/>
+      <c r="K44" s="24"/>
+      <c r="L44" s="24"/>
     </row>
     <row r="46" spans="2:12">
-      <c r="B46" s="29" t="s">
+      <c r="B46" s="25" t="s">
         <v>16</v>
       </c>
       <c r="C46" s="18"/>
@@ -1896,25 +1896,25 @@
       <c r="H52" s="4"/>
     </row>
     <row r="55" spans="2:15" ht="15.75">
-      <c r="B55" s="30" t="s">
+      <c r="B55" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="C55" s="30"/>
-      <c r="D55" s="30"/>
-      <c r="E55" s="30"/>
-      <c r="F55" s="30"/>
-      <c r="G55" s="30"/>
-      <c r="H55" s="30"/>
-      <c r="I55" s="30"/>
-      <c r="J55" s="30"/>
-      <c r="K55" s="30"/>
-      <c r="L55" s="30"/>
-      <c r="M55" s="30"/>
-      <c r="N55" s="30"/>
-      <c r="O55" s="30"/>
+      <c r="C55" s="26"/>
+      <c r="D55" s="26"/>
+      <c r="E55" s="26"/>
+      <c r="F55" s="26"/>
+      <c r="G55" s="26"/>
+      <c r="H55" s="26"/>
+      <c r="I55" s="26"/>
+      <c r="J55" s="26"/>
+      <c r="K55" s="26"/>
+      <c r="L55" s="26"/>
+      <c r="M55" s="26"/>
+      <c r="N55" s="26"/>
+      <c r="O55" s="26"/>
     </row>
     <row r="58" spans="2:15">
-      <c r="B58" s="29" t="s">
+      <c r="B58" s="25" t="s">
         <v>18</v>
       </c>
       <c r="C58" s="18"/>
@@ -1926,61 +1926,61 @@
       <c r="G59" s="1"/>
     </row>
     <row r="61" spans="2:15">
-      <c r="B61" s="27"/>
-      <c r="C61" s="27"/>
-      <c r="D61" s="27"/>
-      <c r="E61" s="27"/>
-      <c r="F61" s="27"/>
-      <c r="G61" s="27"/>
+      <c r="B61" s="22"/>
+      <c r="C61" s="22"/>
+      <c r="D61" s="22"/>
+      <c r="E61" s="22"/>
+      <c r="F61" s="22"/>
+      <c r="G61" s="22"/>
     </row>
     <row r="62" spans="2:15">
-      <c r="B62" s="27"/>
-      <c r="C62" s="27"/>
-      <c r="D62" s="27"/>
-      <c r="E62" s="27"/>
-      <c r="F62" s="27"/>
-      <c r="G62" s="27"/>
+      <c r="B62" s="22"/>
+      <c r="C62" s="22"/>
+      <c r="D62" s="22"/>
+      <c r="E62" s="22"/>
+      <c r="F62" s="22"/>
+      <c r="G62" s="22"/>
     </row>
     <row r="63" spans="2:15">
-      <c r="B63" s="27"/>
-      <c r="C63" s="27"/>
-      <c r="D63" s="27"/>
-      <c r="E63" s="27"/>
-      <c r="F63" s="27"/>
-      <c r="G63" s="27"/>
+      <c r="B63" s="22"/>
+      <c r="C63" s="22"/>
+      <c r="D63" s="22"/>
+      <c r="E63" s="22"/>
+      <c r="F63" s="22"/>
+      <c r="G63" s="22"/>
     </row>
     <row r="64" spans="2:15">
-      <c r="B64" s="27"/>
-      <c r="C64" s="27"/>
-      <c r="D64" s="27"/>
-      <c r="E64" s="27"/>
-      <c r="F64" s="27"/>
-      <c r="G64" s="27"/>
+      <c r="B64" s="22"/>
+      <c r="C64" s="22"/>
+      <c r="D64" s="22"/>
+      <c r="E64" s="22"/>
+      <c r="F64" s="22"/>
+      <c r="G64" s="22"/>
     </row>
     <row r="65" spans="1:13">
-      <c r="B65" s="27"/>
-      <c r="C65" s="27"/>
-      <c r="D65" s="27"/>
-      <c r="E65" s="27"/>
-      <c r="F65" s="27"/>
-      <c r="G65" s="27"/>
+      <c r="B65" s="22"/>
+      <c r="C65" s="22"/>
+      <c r="D65" s="22"/>
+      <c r="E65" s="22"/>
+      <c r="F65" s="22"/>
+      <c r="G65" s="22"/>
     </row>
     <row r="66" spans="1:13">
-      <c r="B66" s="27"/>
-      <c r="C66" s="27"/>
-      <c r="D66" s="27"/>
-      <c r="E66" s="27"/>
-      <c r="F66" s="27"/>
-      <c r="G66" s="27"/>
+      <c r="B66" s="22"/>
+      <c r="C66" s="22"/>
+      <c r="D66" s="22"/>
+      <c r="E66" s="22"/>
+      <c r="F66" s="22"/>
+      <c r="G66" s="22"/>
       <c r="M66" s="1"/>
     </row>
     <row r="67" spans="1:13">
-      <c r="B67" s="27"/>
-      <c r="C67" s="27"/>
-      <c r="D67" s="27"/>
-      <c r="E67" s="27"/>
-      <c r="F67" s="27"/>
-      <c r="G67" s="27"/>
+      <c r="B67" s="22"/>
+      <c r="C67" s="22"/>
+      <c r="D67" s="22"/>
+      <c r="E67" s="22"/>
+      <c r="F67" s="22"/>
+      <c r="G67" s="22"/>
     </row>
     <row r="68" spans="1:13">
       <c r="H68" s="1"/>
@@ -2030,18 +2030,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="B1:E2"/>
+    <mergeCell ref="B4:G15"/>
+    <mergeCell ref="I5:P6"/>
+    <mergeCell ref="B18:E20"/>
+    <mergeCell ref="B22:G27"/>
+    <mergeCell ref="J22:Q23"/>
     <mergeCell ref="B61:G67"/>
     <mergeCell ref="B31:E33"/>
     <mergeCell ref="B42:L44"/>
     <mergeCell ref="B46:D47"/>
     <mergeCell ref="B55:O55"/>
     <mergeCell ref="B58:C59"/>
-    <mergeCell ref="B1:E2"/>
-    <mergeCell ref="B4:G15"/>
-    <mergeCell ref="I5:P6"/>
-    <mergeCell ref="B18:E20"/>
-    <mergeCell ref="B22:G27"/>
-    <mergeCell ref="J22:Q23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -2060,45 +2060,45 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="3" spans="1:14" ht="18.75">
-      <c r="F3" s="45" t="s">
+      <c r="F3" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="G3" s="46"/>
-      <c r="H3" s="46"/>
+      <c r="G3" s="33"/>
+      <c r="H3" s="33"/>
     </row>
     <row r="4" spans="1:14">
       <c r="I4" s="1"/>
       <c r="J4" s="12"/>
     </row>
     <row r="5" spans="1:14">
-      <c r="A5" s="47" t="s">
+      <c r="A5" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="47"/>
-      <c r="C5" s="48" t="s">
+      <c r="B5" s="34"/>
+      <c r="C5" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="D5" s="49"/>
-      <c r="E5" s="49"/>
-      <c r="F5" s="49"/>
-      <c r="G5" s="49"/>
-      <c r="H5" s="49"/>
+      <c r="D5" s="36"/>
+      <c r="E5" s="36"/>
+      <c r="F5" s="36"/>
+      <c r="G5" s="36"/>
+      <c r="H5" s="36"/>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="11"/>
       <c r="B6" s="11"/>
-      <c r="C6" s="49"/>
-      <c r="D6" s="49"/>
-      <c r="E6" s="49"/>
-      <c r="F6" s="49"/>
-      <c r="G6" s="49"/>
-      <c r="H6" s="49"/>
+      <c r="C6" s="36"/>
+      <c r="D6" s="36"/>
+      <c r="E6" s="36"/>
+      <c r="F6" s="36"/>
+      <c r="G6" s="36"/>
+      <c r="H6" s="36"/>
     </row>
     <row r="7" spans="1:14" ht="18.75">
-      <c r="A7" s="50" t="s">
+      <c r="A7" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="44"/>
+      <c r="B7" s="31"/>
       <c r="C7" s="1">
         <v>1</v>
       </c>
@@ -2122,10 +2122,10 @@
       </c>
     </row>
     <row r="8" spans="1:14">
-      <c r="A8" s="44" t="s">
+      <c r="A8" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="44"/>
+      <c r="B8" s="31"/>
       <c r="C8" s="1">
         <v>2</v>
       </c>
@@ -2149,10 +2149,10 @@
       </c>
     </row>
     <row r="9" spans="1:14">
-      <c r="A9" s="44" t="s">
+      <c r="A9" s="31" t="s">
         <v>25</v>
       </c>
-      <c r="B9" s="44"/>
+      <c r="B9" s="31"/>
       <c r="C9" s="14">
         <v>3</v>
       </c>
@@ -2176,10 +2176,10 @@
       </c>
     </row>
     <row r="10" spans="1:14">
-      <c r="A10" s="44" t="s">
+      <c r="A10" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="B10" s="44"/>
+      <c r="B10" s="31"/>
       <c r="C10" s="1">
         <v>4</v>
       </c>
@@ -2188,10 +2188,10 @@
       </c>
     </row>
     <row r="11" spans="1:14" ht="18.75">
-      <c r="A11" s="36" t="s">
+      <c r="A11" s="38" t="s">
         <v>27</v>
       </c>
-      <c r="B11" s="36"/>
+      <c r="B11" s="38"/>
       <c r="C11" s="1">
         <v>5</v>
       </c>
@@ -2235,48 +2235,48 @@
       </c>
     </row>
     <row r="14" spans="1:14">
-      <c r="A14" s="42" t="s">
+      <c r="A14" s="44" t="s">
         <v>28</v>
       </c>
-      <c r="B14" s="42"/>
-      <c r="C14" s="42"/>
-      <c r="D14" s="42"/>
-      <c r="E14" s="42"/>
-      <c r="F14" s="42"/>
+      <c r="B14" s="44"/>
+      <c r="C14" s="44"/>
+      <c r="D14" s="44"/>
+      <c r="E14" s="44"/>
+      <c r="F14" s="44"/>
     </row>
     <row r="15" spans="1:14">
-      <c r="B15" s="43" t="s">
+      <c r="B15" s="45" t="s">
         <v>29</v>
       </c>
-      <c r="C15" s="43"/>
-      <c r="D15" s="43"/>
+      <c r="C15" s="45"/>
+      <c r="D15" s="45"/>
       <c r="N15" s="1"/>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="37" t="s">
+      <c r="A17" s="39" t="s">
         <v>30</v>
       </c>
-      <c r="B17" s="37"/>
-      <c r="C17" s="38" t="s">
+      <c r="B17" s="39"/>
+      <c r="C17" s="40" t="s">
         <v>31</v>
       </c>
-      <c r="D17" s="39"/>
-      <c r="E17" s="39"/>
-      <c r="F17" s="39"/>
-      <c r="G17" s="39"/>
-      <c r="H17" s="39"/>
-      <c r="I17" s="39"/>
+      <c r="D17" s="41"/>
+      <c r="E17" s="41"/>
+      <c r="F17" s="41"/>
+      <c r="G17" s="41"/>
+      <c r="H17" s="41"/>
+      <c r="I17" s="41"/>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="37"/>
-      <c r="B18" s="37"/>
-      <c r="C18" s="39"/>
-      <c r="D18" s="39"/>
-      <c r="E18" s="39"/>
-      <c r="F18" s="39"/>
-      <c r="G18" s="39"/>
-      <c r="H18" s="39"/>
-      <c r="I18" s="39"/>
+      <c r="A18" s="39"/>
+      <c r="B18" s="39"/>
+      <c r="C18" s="41"/>
+      <c r="D18" s="41"/>
+      <c r="E18" s="41"/>
+      <c r="F18" s="41"/>
+      <c r="G18" s="41"/>
+      <c r="H18" s="41"/>
+      <c r="I18" s="41"/>
     </row>
     <row r="19" spans="1:9">
       <c r="A19" s="15"/>
@@ -2290,114 +2290,123 @@
       <c r="I19" s="15"/>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" s="40" t="s">
+      <c r="A20" s="42" t="s">
         <v>32</v>
       </c>
-      <c r="B20" s="40"/>
-      <c r="C20" s="41" t="s">
+      <c r="B20" s="42"/>
+      <c r="C20" s="43" t="s">
         <v>33</v>
       </c>
-      <c r="D20" s="41"/>
-      <c r="E20" s="40" t="s">
+      <c r="D20" s="43"/>
+      <c r="E20" s="42" t="s">
         <v>34</v>
       </c>
-      <c r="F20" s="40"/>
+      <c r="F20" s="42"/>
     </row>
     <row r="21" spans="1:9">
-      <c r="A21" s="35" t="s">
+      <c r="A21" s="46" t="s">
         <v>35</v>
       </c>
-      <c r="B21" s="35"/>
-      <c r="C21" s="33">
+      <c r="B21" s="46"/>
+      <c r="C21" s="47">
         <v>44197</v>
       </c>
-      <c r="D21" s="34"/>
-      <c r="E21" s="34">
+      <c r="D21" s="48"/>
+      <c r="E21" s="48">
         <v>1</v>
       </c>
-      <c r="F21" s="34"/>
+      <c r="F21" s="48"/>
     </row>
     <row r="22" spans="1:9">
-      <c r="A22" s="35" t="s">
+      <c r="A22" s="46" t="s">
         <v>36</v>
       </c>
-      <c r="B22" s="35"/>
-      <c r="C22" s="33">
+      <c r="B22" s="46"/>
+      <c r="C22" s="47">
         <v>44198</v>
       </c>
-      <c r="D22" s="34"/>
-      <c r="E22" s="34">
+      <c r="D22" s="48"/>
+      <c r="E22" s="48">
         <v>2</v>
       </c>
-      <c r="F22" s="34"/>
+      <c r="F22" s="48"/>
     </row>
     <row r="23" spans="1:9">
-      <c r="A23" s="35" t="s">
+      <c r="A23" s="46" t="s">
         <v>37</v>
       </c>
-      <c r="B23" s="35"/>
-      <c r="C23" s="33">
+      <c r="B23" s="46"/>
+      <c r="C23" s="47">
         <v>44199</v>
       </c>
-      <c r="D23" s="34"/>
-      <c r="E23" s="34">
+      <c r="D23" s="48"/>
+      <c r="E23" s="48">
         <v>3</v>
       </c>
-      <c r="F23" s="34"/>
+      <c r="F23" s="48"/>
     </row>
     <row r="24" spans="1:9">
-      <c r="A24" s="35" t="s">
+      <c r="A24" s="46" t="s">
         <v>38</v>
       </c>
-      <c r="B24" s="35"/>
-      <c r="C24" s="33">
+      <c r="B24" s="46"/>
+      <c r="C24" s="47">
         <v>44200</v>
       </c>
-      <c r="D24" s="34"/>
-      <c r="E24" s="34">
+      <c r="D24" s="48"/>
+      <c r="E24" s="48">
         <v>4</v>
       </c>
-      <c r="F24" s="34"/>
+      <c r="F24" s="48"/>
     </row>
     <row r="25" spans="1:9">
-      <c r="A25" s="35" t="s">
+      <c r="A25" s="46" t="s">
         <v>39</v>
       </c>
-      <c r="B25" s="35"/>
-      <c r="C25" s="33">
+      <c r="B25" s="46"/>
+      <c r="C25" s="47">
         <v>44201</v>
       </c>
-      <c r="D25" s="34"/>
-      <c r="E25" s="34">
+      <c r="D25" s="48"/>
+      <c r="E25" s="48">
         <v>5</v>
       </c>
-      <c r="F25" s="34"/>
+      <c r="F25" s="48"/>
     </row>
     <row r="27" spans="1:9">
-      <c r="B27" s="31" t="s">
+      <c r="B27" s="49" t="s">
         <v>40</v>
       </c>
-      <c r="C27" s="32"/>
-      <c r="D27" s="32"/>
-      <c r="E27" s="32"/>
-      <c r="F27" s="32"/>
+      <c r="C27" s="50"/>
+      <c r="D27" s="50"/>
+      <c r="E27" s="50"/>
+      <c r="F27" s="50"/>
     </row>
     <row r="28" spans="1:9">
-      <c r="B28" s="32"/>
-      <c r="C28" s="32"/>
-      <c r="D28" s="32"/>
-      <c r="E28" s="32"/>
-      <c r="F28" s="32"/>
+      <c r="B28" s="50"/>
+      <c r="C28" s="50"/>
+      <c r="D28" s="50"/>
+      <c r="E28" s="50"/>
+      <c r="F28" s="50"/>
     </row>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="F3:H3"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:H6"/>
-    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="B27:F28"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A25:B25"/>
     <mergeCell ref="A11:B11"/>
     <mergeCell ref="A17:B18"/>
     <mergeCell ref="C17:I18"/>
@@ -2406,22 +2415,13 @@
     <mergeCell ref="E20:F20"/>
     <mergeCell ref="A14:F14"/>
     <mergeCell ref="B15:D15"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="B27:F28"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="F3:H3"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:H6"/>
+    <mergeCell ref="A7:B7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -2439,105 +2439,105 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="33" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="53" t="s">
+      <c r="A3" s="51" t="s">
         <v>42</v>
       </c>
-      <c r="B3" s="53"/>
-      <c r="C3" s="53"/>
-      <c r="D3" s="53"/>
+      <c r="B3" s="51"/>
+      <c r="C3" s="51"/>
+      <c r="D3" s="51"/>
     </row>
     <row r="5" spans="1:10">
-      <c r="A5" s="34" t="s">
+      <c r="A5" s="48" t="s">
         <v>43</v>
       </c>
-      <c r="B5" s="34"/>
-      <c r="C5" s="34" t="s">
+      <c r="B5" s="48"/>
+      <c r="C5" s="48" t="s">
         <v>44</v>
       </c>
-      <c r="D5" s="34"/>
+      <c r="D5" s="48"/>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" s="34" t="s">
+      <c r="A6" s="48" t="s">
         <v>45</v>
       </c>
-      <c r="B6" s="34"/>
-      <c r="C6" s="34" t="s">
+      <c r="B6" s="48"/>
+      <c r="C6" s="48" t="s">
         <v>46</v>
       </c>
-      <c r="D6" s="34"/>
+      <c r="D6" s="48"/>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7" s="34" t="s">
+      <c r="A7" s="48" t="s">
         <v>47</v>
       </c>
-      <c r="B7" s="34"/>
+      <c r="B7" s="48"/>
     </row>
     <row r="8" spans="1:10">
-      <c r="A8" s="34" t="s">
+      <c r="A8" s="48" t="s">
         <v>48</v>
       </c>
-      <c r="B8" s="34"/>
+      <c r="B8" s="48"/>
     </row>
     <row r="9" spans="1:10">
-      <c r="A9" s="34" t="s">
+      <c r="A9" s="48" t="s">
         <v>49</v>
       </c>
-      <c r="B9" s="34"/>
+      <c r="B9" s="48"/>
     </row>
     <row r="11" spans="1:10">
-      <c r="A11" s="32" t="s">
+      <c r="A11" s="50" t="s">
         <v>50</v>
       </c>
-      <c r="B11" s="32"/>
-      <c r="C11" s="32"/>
-      <c r="D11" s="32"/>
-      <c r="E11" s="32"/>
-      <c r="F11" s="32"/>
+      <c r="B11" s="50"/>
+      <c r="C11" s="50"/>
+      <c r="D11" s="50"/>
+      <c r="E11" s="50"/>
+      <c r="F11" s="50"/>
     </row>
     <row r="13" spans="1:10">
-      <c r="A13" s="51" t="s">
+      <c r="A13" s="52" t="s">
         <v>51</v>
       </c>
-      <c r="B13" s="52"/>
-      <c r="C13" s="52"/>
-      <c r="D13" s="52"/>
-      <c r="E13" s="52"/>
-      <c r="F13" s="52"/>
-      <c r="G13" s="52"/>
+      <c r="B13" s="53"/>
+      <c r="C13" s="53"/>
+      <c r="D13" s="53"/>
+      <c r="E13" s="53"/>
+      <c r="F13" s="53"/>
+      <c r="G13" s="53"/>
     </row>
     <row r="14" spans="1:10">
-      <c r="A14" s="52"/>
-      <c r="B14" s="52"/>
-      <c r="C14" s="52"/>
-      <c r="D14" s="52"/>
-      <c r="E14" s="52"/>
-      <c r="F14" s="52"/>
-      <c r="G14" s="52"/>
+      <c r="A14" s="53"/>
+      <c r="B14" s="53"/>
+      <c r="C14" s="53"/>
+      <c r="D14" s="53"/>
+      <c r="E14" s="53"/>
+      <c r="F14" s="53"/>
+      <c r="G14" s="53"/>
     </row>
     <row r="16" spans="1:10">
       <c r="J16" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A11:F11"/>
+    <mergeCell ref="A13:G14"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A3:D3"/>
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="C6:D6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A11:F11"/>
-    <mergeCell ref="A13:G14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2548,46 +2548,46 @@
   <dimension ref="A1:K19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7:K7"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:11">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="41" t="s">
         <v>52</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="34" t="s">
+      <c r="A4" s="48" t="s">
         <v>53</v>
       </c>
-      <c r="B4" s="34"/>
-      <c r="C4" s="34"/>
-      <c r="D4" s="34"/>
-      <c r="E4" s="34"/>
+      <c r="B4" s="48"/>
+      <c r="C4" s="48"/>
+      <c r="D4" s="48"/>
+      <c r="E4" s="48"/>
     </row>
     <row r="6" spans="1:11" ht="18.75">
       <c r="D6" s="54" t="s">
         <v>54</v>
       </c>
-      <c r="E6" s="43"/>
-      <c r="F6" s="43"/>
-      <c r="G6" s="43"/>
-      <c r="H6" s="43"/>
-      <c r="I6" s="43"/>
-      <c r="J6" s="43"/>
-      <c r="K6" s="43"/>
+      <c r="E6" s="45"/>
+      <c r="F6" s="45"/>
+      <c r="G6" s="45"/>
+      <c r="H6" s="45"/>
+      <c r="I6" s="45"/>
+      <c r="J6" s="45"/>
+      <c r="K6" s="45"/>
     </row>
     <row r="7" spans="1:11">
-      <c r="A7" s="34" t="s">
+      <c r="A7" s="48" t="s">
         <v>55</v>
       </c>
-      <c r="B7" s="34"/>
-      <c r="C7" s="34"/>
+      <c r="B7" s="48"/>
+      <c r="C7" s="48"/>
       <c r="D7" s="16" t="s">
         <v>56</v>
       </c>
@@ -2606,22 +2606,22 @@
       <c r="K7" s="16"/>
     </row>
     <row r="8" spans="1:11">
-      <c r="A8" s="34" t="s">
+      <c r="A8" s="48" t="s">
         <v>60</v>
       </c>
-      <c r="B8" s="34"/>
+      <c r="B8" s="48"/>
       <c r="D8" t="str">
         <f>UPPER(A8)</f>
         <v>WILBUR LEPCHA</v>
       </c>
-      <c r="H8" s="34"/>
-      <c r="I8" s="34"/>
+      <c r="H8" s="48"/>
+      <c r="I8" s="48"/>
     </row>
     <row r="9" spans="1:11">
-      <c r="A9" s="34" t="s">
+      <c r="A9" s="48" t="s">
         <v>61</v>
       </c>
-      <c r="B9" s="34"/>
+      <c r="B9" s="48"/>
       <c r="D9" t="str">
         <f>UPPER(A9)</f>
         <v>NELSON MANDELA</v>
@@ -2633,20 +2633,20 @@
       </c>
     </row>
     <row r="11" spans="1:11">
-      <c r="A11" s="34" t="s">
+      <c r="A11" s="48" t="s">
         <v>63</v>
       </c>
-      <c r="B11" s="34"/>
+      <c r="B11" s="48"/>
       <c r="D11" t="str">
         <f>UPPER(A11)</f>
         <v>ELON MUSK</v>
       </c>
     </row>
     <row r="12" spans="1:11">
-      <c r="A12" s="34" t="s">
+      <c r="A12" s="48" t="s">
         <v>62</v>
       </c>
-      <c r="B12" s="34"/>
+      <c r="B12" s="48"/>
     </row>
     <row r="19" spans="9:9">
       <c r="I19" t="str">
@@ -2656,11 +2656,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="H8:I8"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A4:E4"/>
     <mergeCell ref="A7:C7"/>
@@ -2669,6 +2664,11 @@
     <mergeCell ref="F7:G7"/>
     <mergeCell ref="H7:I7"/>
     <mergeCell ref="J7:K7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="H8:I8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
